--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB309.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB309.xlsx
@@ -509,28 +509,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
-        <v>71.24631500244141</v>
+        <v>71.246337890625</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.705522537231445e-08</v>
+        <v>3.725290298461914e-08</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2536849975585938</v>
+        <v>-0.253662109375</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.705522537231445e-08</v>
+        <v>3.725290298461914e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0003960461763199419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2536849975586026</v>
+        <v>0.2536624185510136</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
-        <v>-71.24631500244141</v>
+        <v>-71.246337890625</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.21540641784668e-08</v>
+        <v>-3.725290298461914e-08</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2536849975585938</v>
+        <v>0.253662109375</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.21540641784668e-08</v>
+        <v>-3.725290298461914e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0003960461763199419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2536849975585991</v>
+        <v>0.2536624185510136</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>321.6100463867188</v>
+        <v>321.6099548339844</v>
       </c>
       <c r="G4" t="n">
-        <v>395.1309509277344</v>
+        <v>395.1307067871094</v>
       </c>
       <c r="H4" t="n">
         <v>117.0693283081055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.11004638671875</v>
+        <v>0.109954833984375</v>
       </c>
       <c r="J4" t="n">
-        <v>9.281585693359375</v>
+        <v>9.281341552734375</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.819343566894531</v>
+        <v>-1.818946838378906</v>
       </c>
       <c r="L4" t="n">
-        <v>9.458855861297591</v>
+        <v>9.458538929712077</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
         <v>-327.911376953125</v>
       </c>
       <c r="G5" t="n">
-        <v>392.7549133300781</v>
+        <v>392.7548828125</v>
       </c>
       <c r="H5" t="n">
-        <v>116.6993103027344</v>
+        <v>116.6993408203125</v>
       </c>
       <c r="I5" t="n">
         <v>-6.411376953125</v>
       </c>
       <c r="J5" t="n">
-        <v>6.905548095703125</v>
+        <v>6.905517578125</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.189361572265625</v>
+        <v>-2.188934326171875</v>
       </c>
       <c r="L5" t="n">
-        <v>9.673967801850742</v>
+        <v>9.673849334217961</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>327.6183166503906</v>
+        <v>327.6183776855469</v>
       </c>
       <c r="G6" t="n">
-        <v>-391.0270385742188</v>
+        <v>-391.0271911621094</v>
       </c>
       <c r="H6" t="n">
-        <v>116.1991424560547</v>
+        <v>116.1991577148438</v>
       </c>
       <c r="I6" t="n">
-        <v>6.118316650390625</v>
+        <v>6.118377685546875</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.17767333984375</v>
+        <v>-5.177825927734375</v>
       </c>
       <c r="K6" t="n">
-        <v>-2.689529418945312</v>
+        <v>-2.689117431640625</v>
       </c>
       <c r="L6" t="n">
-        <v>8.454328379235585</v>
+        <v>8.454334947355099</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-323.6854858398438</v>
+        <v>-323.6856079101562</v>
       </c>
       <c r="G7" t="n">
-        <v>-398.3281555175781</v>
+        <v>-398.3282470703125</v>
       </c>
       <c r="H7" t="n">
-        <v>118.031005859375</v>
+        <v>118.0310668945312</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.18548583984375</v>
+        <v>-2.18560791015625</v>
       </c>
       <c r="J7" t="n">
-        <v>-12.47879028320312</v>
+        <v>-12.4788818359375</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.857666015625</v>
+        <v>-0.857208251953125</v>
       </c>
       <c r="L7" t="n">
-        <v>12.69772209030739</v>
+        <v>12.69780216413238</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
-        <v>176.7197570800781</v>
+        <v>176.7197723388672</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388771057128906</v>
+        <v>1.388782501220703</v>
       </c>
       <c r="H8" t="n">
-        <v>122.0695037841797</v>
+        <v>122.0695266723633</v>
       </c>
       <c r="I8" t="n">
-        <v>3.451187133789062</v>
+        <v>3.451202392578125</v>
       </c>
       <c r="J8" t="n">
-        <v>1.388771057128906</v>
+        <v>1.388782501220703</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.009597778320312</v>
+        <v>-3.009178161621094</v>
       </c>
       <c r="L8" t="n">
-        <v>4.785086882055609</v>
+        <v>4.784837301164075</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
-        <v>-174.6800689697266</v>
+        <v>-174.6800994873047</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7892074584960938</v>
+        <v>-0.7892208099365234</v>
       </c>
       <c r="H9" t="n">
-        <v>123.1994781494141</v>
+        <v>123.1995162963867</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.4114990234375</v>
+        <v>-1.411529541015625</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.7892074584960938</v>
+        <v>-0.7892208099365234</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.879623413085938</v>
+        <v>-1.879188537597656</v>
       </c>
       <c r="L9" t="n">
-        <v>2.479548765548222</v>
+        <v>2.479240749067154</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-428.8165434621828</v>
+        <v>-428.8165761605909</v>
       </c>
       <c r="G10" t="n">
-        <v>388.0816414958688</v>
+        <v>388.0816269754529</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.4847893782341</v>
+        <v>-10.48475196119742</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.547974368330813</v>
+        <v>-5.548007066738876</v>
       </c>
       <c r="J10" t="n">
-        <v>6.245032609150087</v>
+        <v>6.245018088734184</v>
       </c>
       <c r="K10" t="n">
-        <v>-4.358812815734098</v>
+        <v>-4.358379147018951</v>
       </c>
       <c r="L10" t="n">
-        <v>9.422298076563457</v>
+        <v>9.422107096099646</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-503.2661101831346</v>
+        <v>-503.2661182106454</v>
       </c>
       <c r="G11" t="n">
-        <v>388.0816414958688</v>
+        <v>388.0816269754529</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.4847893782341</v>
+        <v>-10.48475196119742</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.497541089282663</v>
+        <v>-8.497549116793436</v>
       </c>
       <c r="J11" t="n">
-        <v>6.245032609150087</v>
+        <v>6.245018088734184</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.358812815734098</v>
+        <v>-4.358379147018951</v>
       </c>
       <c r="L11" t="n">
-        <v>11.41086701421075</v>
+        <v>11.41069939618531</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-503.2661101831346</v>
+        <v>-503.2661182106454</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9365956803015024</v>
+        <v>-0.9366136593097085</v>
       </c>
       <c r="H12" t="n">
-        <v>119.9759955727662</v>
+        <v>119.9760320351071</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.497555921853177</v>
+        <v>-8.497563949363951</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.9365880509069712</v>
+        <v>-0.9366060299151773</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.103105989733777</v>
+        <v>-5.102672798877236</v>
       </c>
       <c r="L12" t="n">
-        <v>9.956271619666694</v>
+        <v>9.956058136692702</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-425.3475296778407</v>
+        <v>-425.3475653509083</v>
       </c>
       <c r="G13" t="n">
-        <v>-393.3420498045187</v>
+        <v>-393.3420589186697</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.204769860690959</v>
+        <v>-6.20473958798911</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.078960583988703</v>
+        <v>-2.078996257056303</v>
       </c>
       <c r="J13" t="n">
-        <v>-11.50544091779994</v>
+        <v>-11.50545003195094</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.07879329819095915</v>
+        <v>-0.07836677381064305</v>
       </c>
       <c r="L13" t="n">
-        <v>11.69202532526353</v>
+        <v>11.69203777045779</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-503.2661101831346</v>
+        <v>-503.2661182106454</v>
       </c>
       <c r="G14" t="n">
-        <v>-393.3420498045187</v>
+        <v>-393.3420589186697</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.204769860690959</v>
+        <v>-6.20473958798911</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.497541089282663</v>
+        <v>-8.497549116793436</v>
       </c>
       <c r="J14" t="n">
-        <v>-11.50544091779994</v>
+        <v>-11.50545003195094</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.07879329819095915</v>
+        <v>-0.07836677381064305</v>
       </c>
       <c r="L14" t="n">
-        <v>14.30348152237322</v>
+        <v>14.30349127944903</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>504.623158824941</v>
+        <v>504.6231822428343</v>
       </c>
       <c r="G15" t="n">
-        <v>394.1849400702764</v>
+        <v>394.1849486090481</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.806313432477111</v>
+        <v>-9.806311836456814</v>
       </c>
       <c r="I15" t="n">
-        <v>9.854589731088993</v>
+        <v>9.85461314898231</v>
       </c>
       <c r="J15" t="n">
-        <v>12.3483311835576</v>
+        <v>12.34833972232934</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.680336869977111</v>
+        <v>-3.679939022278347</v>
       </c>
       <c r="L15" t="n">
-        <v>16.22156284898033</v>
+        <v>16.22149331664131</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>425.7123483202224</v>
+        <v>425.7123576542002</v>
       </c>
       <c r="G16" t="n">
-        <v>394.1849400702764</v>
+        <v>394.1849486090481</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.806313432477111</v>
+        <v>-9.806311836456814</v>
       </c>
       <c r="I16" t="n">
-        <v>2.443779226370395</v>
+        <v>2.443788560348196</v>
       </c>
       <c r="J16" t="n">
-        <v>12.3483311835576</v>
+        <v>12.34833972232934</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.680336869977111</v>
+        <v>-3.679939022278347</v>
       </c>
       <c r="L16" t="n">
-        <v>13.11480916378784</v>
+        <v>13.11470730262145</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>504.623158824941</v>
+        <v>504.6231822428343</v>
       </c>
       <c r="G17" t="n">
-        <v>6.51434195144537</v>
+        <v>6.51432950843293</v>
       </c>
       <c r="H17" t="n">
-        <v>120.7796487342383</v>
+        <v>120.7796584822558</v>
       </c>
       <c r="I17" t="n">
-        <v>9.854604563659507</v>
+        <v>9.854627981552824</v>
       </c>
       <c r="J17" t="n">
-        <v>6.514349580839902</v>
+        <v>6.514337137827461</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.299452828261749</v>
+        <v>-4.299046351728592</v>
       </c>
       <c r="L17" t="n">
-        <v>12.57120822315563</v>
+        <v>12.57108112034891</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>504.623158824941</v>
+        <v>504.6231822428343</v>
       </c>
       <c r="G18" t="n">
-        <v>-385.2120359695795</v>
+        <v>-385.2120220750615</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.224253849094254</v>
+        <v>-4.224259596898335</v>
       </c>
       <c r="I18" t="n">
-        <v>9.854589731088993</v>
+        <v>9.85461314898231</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.375427082860767</v>
+        <v>-3.375413188342748</v>
       </c>
       <c r="K18" t="n">
-        <v>1.901722713405746</v>
+        <v>1.902113217280132</v>
       </c>
       <c r="L18" t="n">
-        <v>10.58881466635798</v>
+        <v>10.58890217158913</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>437.9995104160624</v>
+        <v>437.999516771543</v>
       </c>
       <c r="G19" t="n">
-        <v>-385.2120359695795</v>
+        <v>-385.2120220750615</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.224253849094254</v>
+        <v>-4.224259596898335</v>
       </c>
       <c r="I19" t="n">
-        <v>14.73094132221036</v>
+        <v>14.73094767769095</v>
       </c>
       <c r="J19" t="n">
-        <v>-3.375427082860767</v>
+        <v>-3.375413188342748</v>
       </c>
       <c r="K19" t="n">
-        <v>1.901722713405746</v>
+        <v>1.902113217280132</v>
       </c>
       <c r="L19" t="n">
-        <v>15.23189710800325</v>
+        <v>15.23194893525639</v>
       </c>
     </row>
   </sheetData>
